--- a/Config/Test1.xlsx
+++ b/Config/Test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ExcelToJcon\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14947215-E265-4AA1-B8C3-AD1FE5B32A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5040B7-B644-46A9-808B-993926B10318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>主键</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>hahaha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>longTest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +460,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -471,6 +483,9 @@
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -485,6 +500,9 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -499,6 +517,9 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -526,6 +547,9 @@
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E5">
+        <v>123123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
